--- a/Entregables/Comunicaciones/MAPEO Input Outputs.xlsx
+++ b/Entregables/Comunicaciones/MAPEO Input Outputs.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Guatemala\2024\POC_HINCAPIE\Entregables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Guatemala\2024\POC_HINCAPIE\Entregables\Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA81CE-6DDD-4410-BDB6-EC6071CE2266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A74FA08-9C56-4F30-92CE-00D51CB87EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00DEC3F3-9D5F-4996-ADBB-9228D00EE05E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00DEC3F3-9D5F-4996-ADBB-9228D00EE05E}"/>
   </bookViews>
   <sheets>
     <sheet name="CORRIENTES" sheetId="1" r:id="rId1"/>
+    <sheet name="Alimentación" sheetId="3" r:id="rId2"/>
+    <sheet name="F002" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORRIENTES!$A$1:$I$91</definedName>
@@ -62,8 +64,43 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Omar Vera</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{BDF547E6-713C-4851-9005-89345B085005}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Omar Vera:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NA: Normal Abierto
+NC: Normal Cerrado</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="167">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -330,6 +367,242 @@
   </si>
   <si>
     <t>F3</t>
+  </si>
+  <si>
+    <t>ENTRADA
+SALIDA</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>VDC
+VAC</t>
+  </si>
+  <si>
+    <t>X001</t>
+  </si>
+  <si>
+    <t>F401</t>
+  </si>
+  <si>
+    <t>X41</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>F108</t>
+  </si>
+  <si>
+    <t>20A</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>VDC (+)</t>
+  </si>
+  <si>
+    <t>Cto Cierre 6T6-Q0</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>VDC (-)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>F109</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Cto Disp. 1 6T6-Q0</t>
+  </si>
+  <si>
+    <t>PT1 F002</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>MED. F06_P01</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>L+</t>
+  </si>
+  <si>
+    <t>F107</t>
+  </si>
+  <si>
+    <t>N-</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Cto Disp. 2 6T6-Q0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>F402</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>F110</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>PT2 F003</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F06_F004</t>
+  </si>
+  <si>
+    <t>S004_1</t>
+  </si>
+  <si>
+    <t>F106</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>F403</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2B1</t>
+  </si>
+  <si>
+    <t>2B2</t>
+  </si>
+  <si>
+    <t>Cto Control SECC.</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Cto 86T Disp. Mecanicos</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>X31</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>K301</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -372,7 +645,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +664,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -404,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -419,9 +698,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,9 +1017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79A9485-B59A-4246-B20D-F31CE480F6BB}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1921,7 +2200,7 @@
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3739,4 +4018,3150 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5819A573-E956-4915-8A3D-45D54E296554}">
+  <dimension ref="A1:L110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="6"/>
+    <col min="6" max="6" width="11.5546875" style="7"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="7">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>127</v>
+      </c>
+      <c r="K37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>113</v>
+      </c>
+      <c r="K48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>135</v>
+      </c>
+      <c r="K53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54">
+        <v>23</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" t="s">
+        <v>104</v>
+      </c>
+      <c r="K54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" t="s">
+        <v>95</v>
+      </c>
+      <c r="K58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>142</v>
+      </c>
+      <c r="K59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60">
+        <v>21</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>132</v>
+      </c>
+      <c r="K62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>100</v>
+      </c>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+      <c r="K63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>142</v>
+      </c>
+      <c r="K64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68">
+        <v>11</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+      <c r="K69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>145</v>
+      </c>
+      <c r="K70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71">
+        <v>29</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G71" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>122</v>
+      </c>
+      <c r="I71" t="s">
+        <v>144</v>
+      </c>
+      <c r="K71">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G72" t="s">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>132</v>
+      </c>
+      <c r="K73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" t="s">
+        <v>100</v>
+      </c>
+      <c r="I74" t="s">
+        <v>95</v>
+      </c>
+      <c r="K74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G75" t="s">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>145</v>
+      </c>
+      <c r="K75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76">
+        <v>34</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>122</v>
+      </c>
+      <c r="I76" t="s">
+        <v>144</v>
+      </c>
+      <c r="K76">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G77" t="s">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79">
+        <v>13</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G79" t="s">
+        <v>2</v>
+      </c>
+      <c r="I79" t="s">
+        <v>147</v>
+      </c>
+      <c r="K79">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>95</v>
+      </c>
+      <c r="K80">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G81" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>148</v>
+      </c>
+      <c r="K81">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82">
+        <v>26</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G82" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" t="s">
+        <v>122</v>
+      </c>
+      <c r="I82" t="s">
+        <v>26</v>
+      </c>
+      <c r="K82">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84">
+        <v>14</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>147</v>
+      </c>
+      <c r="K84">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>100</v>
+      </c>
+      <c r="I85" t="s">
+        <v>95</v>
+      </c>
+      <c r="K85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>148</v>
+      </c>
+      <c r="K86">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87">
+        <v>31</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>122</v>
+      </c>
+      <c r="I87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K87">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G88" t="s">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90">
+        <v>13</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>147</v>
+      </c>
+      <c r="K90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>100</v>
+      </c>
+      <c r="I91" t="s">
+        <v>95</v>
+      </c>
+      <c r="K91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G92" t="s">
+        <v>2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>154</v>
+      </c>
+      <c r="K92">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93">
+        <v>27</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>101</v>
+      </c>
+      <c r="I93" t="s">
+        <v>104</v>
+      </c>
+      <c r="K93">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95">
+        <v>14</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>147</v>
+      </c>
+      <c r="K95">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>100</v>
+      </c>
+      <c r="I96" t="s">
+        <v>95</v>
+      </c>
+      <c r="K96">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G97" t="s">
+        <v>2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>154</v>
+      </c>
+      <c r="K97">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98">
+        <v>32</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" t="s">
+        <v>101</v>
+      </c>
+      <c r="I98" t="s">
+        <v>104</v>
+      </c>
+      <c r="K98">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G99" t="s">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K100">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" t="s">
+        <v>93</v>
+      </c>
+      <c r="D101">
+        <v>13</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2</v>
+      </c>
+      <c r="I101" t="s">
+        <v>147</v>
+      </c>
+      <c r="K101">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" t="s">
+        <v>100</v>
+      </c>
+      <c r="I102" t="s">
+        <v>95</v>
+      </c>
+      <c r="K102">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" t="s">
+        <v>97</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2</v>
+      </c>
+      <c r="I103" t="s">
+        <v>162</v>
+      </c>
+      <c r="K103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104">
+        <v>28</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104" t="s">
+        <v>2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>101</v>
+      </c>
+      <c r="I104" t="s">
+        <v>163</v>
+      </c>
+      <c r="K104">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" t="s">
+        <v>97</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G105" t="s">
+        <v>2</v>
+      </c>
+      <c r="K105">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" t="s">
+        <v>93</v>
+      </c>
+      <c r="D106">
+        <v>14</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2</v>
+      </c>
+      <c r="I106" t="s">
+        <v>147</v>
+      </c>
+      <c r="K106">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" t="s">
+        <v>95</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G107" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" t="s">
+        <v>100</v>
+      </c>
+      <c r="I107" t="s">
+        <v>95</v>
+      </c>
+      <c r="K107">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G108" t="s">
+        <v>2</v>
+      </c>
+      <c r="I108" t="s">
+        <v>162</v>
+      </c>
+      <c r="K108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109">
+        <v>33</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G109" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" t="s">
+        <v>101</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K109">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G110" t="s">
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05FBA4-FB8C-4C24-822A-78626C4AA571}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Entregables/Comunicaciones/MAPEO Input Outputs.xlsx
+++ b/Entregables/Comunicaciones/MAPEO Input Outputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Guatemala\2024\POC_HINCAPIE\Entregables\Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A74FA08-9C56-4F30-92CE-00D51CB87EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419BE651-6C8D-448C-90FA-2A06A84A99BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00DEC3F3-9D5F-4996-ADBB-9228D00EE05E}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -700,7 +700,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,7 +1017,7 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
@@ -4024,8 +4023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5819A573-E956-4915-8A3D-45D54E296554}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K110"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7052,7 +7051,7 @@
       <c r="H109" t="s">
         <v>101</v>
       </c>
-      <c r="I109" s="8" t="s">
+      <c r="I109" t="s">
         <v>165</v>
       </c>
       <c r="K109">
@@ -7117,7 +7116,7 @@
     <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
